--- a/Python/QFL.xlsx
+++ b/Python/QFL.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cycleuser/PycharmProjects/GeoPython/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="620" windowWidth="37840" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="39100" yWindow="2440" windowWidth="37840" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,9 +32,6 @@
     <t>﻿Suites</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -663,6 +668,10 @@
   </si>
   <si>
     <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,6 +725,8 @@
       <sz val="9"/>
       <color rgb="FF0000D4"/>
       <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -765,6 +776,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="17">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -773,18 +785,22 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1113,45 +1129,45 @@
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="39" customWidth="1"/>
-    <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
+    <col min="15" max="15" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>177</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1166,11 +1182,11 @@
       <c r="N1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1190,34 +1206,34 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
         <v>170</v>
       </c>
-      <c r="I2" t="s">
-        <v>171</v>
+      <c r="I2" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="3">
+        <v>50</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="3">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="N2" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1240,31 +1256,31 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="3">
+        <v>50</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L3" s="3">
-        <v>50</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="N3" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1284,34 +1300,34 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
         <v>170</v>
       </c>
-      <c r="I4" t="s">
-        <v>171</v>
+      <c r="I4" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L4" s="3">
-        <v>50</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="N4" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1331,34 +1347,34 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="3">
+        <v>50</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="3">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="N5" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1378,34 +1394,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="I6" t="s">
-        <v>171</v>
+      <c r="I6" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L6" s="3">
-        <v>50</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="N6" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1425,34 +1441,34 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="3">
+        <v>50</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L7" s="3">
-        <v>50</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="N7" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1472,36 +1488,36 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
         <v>170</v>
       </c>
-      <c r="I8" t="s">
-        <v>171</v>
+      <c r="I8" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L8" s="3">
-        <v>50</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="N8" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>90</v>
@@ -1519,34 +1535,34 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="3">
+        <v>50</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L9" s="3">
-        <v>50</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1566,34 +1582,34 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="H10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" t="s">
-        <v>171</v>
+      <c r="I10" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="3">
+        <v>50</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="3">
-        <v>50</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="N10" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1613,34 +1629,34 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="3">
+        <v>50</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L11" s="3">
-        <v>50</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1660,34 +1676,34 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="H12" t="s">
         <v>170</v>
       </c>
-      <c r="I12" t="s">
-        <v>171</v>
+      <c r="I12" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3">
+        <v>50</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L12" s="3">
-        <v>50</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N12" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1707,36 +1723,36 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="3">
+        <v>50</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L13" s="3">
-        <v>50</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>78</v>
@@ -1754,34 +1770,34 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
-      </c>
-      <c r="I14" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>50</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L14" s="3">
-        <v>50</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="N14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1801,34 +1817,34 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L15" s="3">
-        <v>50</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="N15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1848,34 +1864,34 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="3">
+        <v>50</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L16" s="3">
-        <v>50</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1895,36 +1911,36 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="H17" t="s">
-        <v>172</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="3">
+        <v>50</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L17" s="3">
-        <v>50</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>72</v>
@@ -1942,34 +1958,34 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="H18" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="3">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="3">
-        <v>50</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1989,34 +2005,34 @@
         <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>195</v>
+      <c r="K19" s="3">
+        <v>50</v>
       </c>
       <c r="L19" s="3">
-        <v>50</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N19" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="O19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2036,34 +2052,34 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
-      </c>
-      <c r="I20" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>195</v>
+      <c r="K20" s="3">
+        <v>50</v>
       </c>
       <c r="L20" s="3">
-        <v>50</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N20" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="O20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2083,36 +2099,36 @@
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>195</v>
+      <c r="K21" s="3">
+        <v>50</v>
       </c>
       <c r="L21" s="3">
-        <v>50</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O21" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N21" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="O21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -2130,34 +2146,34 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>195</v>
+      <c r="K22" s="3">
+        <v>50</v>
       </c>
       <c r="L22" s="3">
-        <v>50</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="O22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2177,34 +2193,34 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>195</v>
+      <c r="K23" s="3">
+        <v>50</v>
       </c>
       <c r="L23" s="3">
-        <v>50</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="O23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2224,34 +2240,34 @@
         <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
-      </c>
-      <c r="I24" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>195</v>
+      <c r="K24" s="3">
+        <v>50</v>
       </c>
       <c r="L24" s="3">
-        <v>50</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O24" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N24" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="O24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2271,34 +2287,34 @@
         <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="H25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>195</v>
+      <c r="K25" s="3">
+        <v>50</v>
       </c>
       <c r="L25" s="3">
-        <v>50</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O25" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2318,34 +2334,34 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
-      </c>
-      <c r="I26" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>195</v>
+      <c r="K26" s="3">
+        <v>50</v>
       </c>
       <c r="L26" s="3">
-        <v>50</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O26" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N26" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="O26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2368,31 +2384,31 @@
         <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>190</v>
+      <c r="K27" s="3">
+        <v>50</v>
       </c>
       <c r="L27" s="3">
-        <v>50</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -2412,34 +2428,34 @@
         <v>73</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>190</v>
+      <c r="K28" s="3">
+        <v>50</v>
       </c>
       <c r="L28" s="3">
-        <v>50</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2459,34 +2475,34 @@
         <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>190</v>
+      <c r="K29" s="3">
+        <v>50</v>
       </c>
       <c r="L29" s="3">
-        <v>50</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2506,34 +2522,34 @@
         <v>70</v>
       </c>
       <c r="G30" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>190</v>
+      <c r="K30" s="3">
+        <v>50</v>
       </c>
       <c r="L30" s="3">
-        <v>50</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2553,34 +2569,34 @@
         <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>190</v>
+      <c r="K31" s="3">
+        <v>50</v>
       </c>
       <c r="L31" s="3">
-        <v>50</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2600,34 +2616,34 @@
         <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>190</v>
+      <c r="K32" s="3">
+        <v>50</v>
       </c>
       <c r="L32" s="3">
-        <v>50</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2647,34 +2663,34 @@
         <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>190</v>
+      <c r="K33" s="3">
+        <v>50</v>
       </c>
       <c r="L33" s="3">
-        <v>50</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O33" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="18" customHeight="1">
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2694,34 +2710,34 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>190</v>
+      <c r="K34" s="3">
+        <v>50</v>
       </c>
       <c r="L34" s="3">
-        <v>50</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O34" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2741,34 +2757,34 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="H35" t="s">
-        <v>175</v>
-      </c>
-      <c r="I35" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>192</v>
+      <c r="K35" s="3">
+        <v>50</v>
       </c>
       <c r="L35" s="3">
-        <v>50</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -2791,31 +2807,31 @@
         <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>192</v>
+      <c r="K36" s="3">
+        <v>50</v>
       </c>
       <c r="L36" s="3">
-        <v>50</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>75</v>
       </c>
@@ -2835,34 +2851,34 @@
         <v>59</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>192</v>
+      <c r="K37" s="3">
+        <v>50</v>
       </c>
       <c r="L37" s="3">
-        <v>50</v>
-      </c>
-      <c r="M37" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2882,34 +2898,34 @@
         <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>192</v>
+      <c r="K38" s="3">
+        <v>50</v>
       </c>
       <c r="L38" s="3">
-        <v>50</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -2929,34 +2945,34 @@
         <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>192</v>
+      <c r="K39" s="3">
+        <v>50</v>
       </c>
       <c r="L39" s="3">
-        <v>50</v>
-      </c>
-      <c r="M39" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -2976,34 +2992,34 @@
         <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>192</v>
+      <c r="K40" s="3">
+        <v>50</v>
       </c>
       <c r="L40" s="3">
-        <v>50</v>
-      </c>
-      <c r="M40" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3023,36 +3039,36 @@
         <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>192</v>
+      <c r="K41" s="3">
+        <v>50</v>
       </c>
       <c r="L41" s="3">
-        <v>50</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>15</v>
@@ -3070,34 +3086,34 @@
         <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H42" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>192</v>
+      <c r="K42" s="3">
+        <v>50</v>
       </c>
       <c r="L42" s="3">
-        <v>50</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="14" customHeight="1">
+        <v>0.6</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -3117,34 +3133,34 @@
         <v>42</v>
       </c>
       <c r="G43" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>192</v>
+      <c r="K43" s="3">
+        <v>50</v>
       </c>
       <c r="L43" s="3">
-        <v>50</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -3167,33 +3183,33 @@
         <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K44" s="3">
+        <v>50</v>
       </c>
       <c r="L44" s="3">
-        <v>50</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="B45">
         <v>34</v>
@@ -3211,36 +3227,36 @@
         <v>22</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
+        <v>173</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="3">
+        <v>50</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O45" t="s">
         <v>90</v>
       </c>
-      <c r="I45" t="s">
-        <v>174</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L45" s="3">
-        <v>50</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>30</v>
@@ -3258,34 +3274,34 @@
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K46" s="3">
+        <v>50</v>
       </c>
       <c r="L46" s="3">
-        <v>50</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3305,34 +3321,34 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K47" s="3">
+        <v>50</v>
       </c>
       <c r="L47" s="3">
-        <v>50</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -3352,34 +3368,34 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K48" s="3">
+        <v>50</v>
       </c>
       <c r="L48" s="3">
-        <v>50</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3399,34 +3415,34 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K49" s="3">
+        <v>50</v>
       </c>
       <c r="L49" s="3">
-        <v>50</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -3446,36 +3462,36 @@
         <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K50" s="3">
+        <v>50</v>
       </c>
       <c r="L50" s="3">
-        <v>50</v>
-      </c>
-      <c r="M50" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>26</v>
@@ -3493,34 +3509,34 @@
         <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
-      </c>
-      <c r="I51" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K51" s="3">
+        <v>50</v>
       </c>
       <c r="L51" s="3">
-        <v>50</v>
-      </c>
-      <c r="M51" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -3540,34 +3556,34 @@
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
-      </c>
-      <c r="I52" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K52" s="3">
+        <v>50</v>
       </c>
       <c r="L52" s="3">
-        <v>50</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -3587,34 +3603,34 @@
         <v>41</v>
       </c>
       <c r="G53" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I53" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K53" s="3">
+        <v>50</v>
       </c>
       <c r="L53" s="3">
-        <v>50</v>
-      </c>
-      <c r="M53" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -3634,34 +3650,34 @@
         <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I54" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K54" s="3">
+        <v>50</v>
       </c>
       <c r="L54" s="3">
-        <v>50</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>108</v>
       </c>
@@ -3681,34 +3697,34 @@
         <v>48</v>
       </c>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
-      </c>
-      <c r="I55" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K55" s="3">
+        <v>50</v>
       </c>
       <c r="L55" s="3">
-        <v>50</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>110</v>
       </c>
@@ -3728,36 +3744,36 @@
         <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K56" s="3">
+        <v>50</v>
       </c>
       <c r="L56" s="3">
-        <v>50</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B57">
         <v>27</v>
@@ -3775,36 +3791,36 @@
         <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
-      </c>
-      <c r="I57" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K57" s="3">
+        <v>50</v>
       </c>
       <c r="L57" s="3">
-        <v>50</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B58">
         <v>39</v>
@@ -3822,34 +3838,34 @@
         <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s">
-        <v>90</v>
-      </c>
-      <c r="I58" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K58" s="3">
+        <v>50</v>
       </c>
       <c r="L58" s="3">
-        <v>50</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3869,36 +3885,36 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s">
-        <v>90</v>
-      </c>
-      <c r="I59" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="K59" s="3">
+        <v>50</v>
       </c>
       <c r="L59" s="3">
-        <v>50</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>45</v>
@@ -3916,34 +3932,34 @@
         <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="H60" t="s">
-        <v>117</v>
-      </c>
-      <c r="I60" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="K60" s="3">
+        <v>50</v>
       </c>
       <c r="L60" s="3">
-        <v>50</v>
-      </c>
-      <c r="M60" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3963,34 +3979,34 @@
         <v>83</v>
       </c>
       <c r="G61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K61" s="3">
+        <v>50</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O61" t="s">
         <v>117</v>
       </c>
-      <c r="I61" t="s">
-        <v>176</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L61" s="3">
-        <v>50</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -4010,34 +4026,34 @@
         <v>82</v>
       </c>
       <c r="G62" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="K62" s="3">
+        <v>50</v>
       </c>
       <c r="L62" s="3">
-        <v>50</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -4057,34 +4073,34 @@
         <v>81</v>
       </c>
       <c r="G63" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H63" t="s">
-        <v>117</v>
-      </c>
-      <c r="I63" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="K63" s="3">
+        <v>50</v>
       </c>
       <c r="L63" s="3">
-        <v>50</v>
-      </c>
-      <c r="M63" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O63" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -4107,31 +4123,31 @@
         <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
-      </c>
-      <c r="I64" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K64" s="3">
+        <v>50</v>
       </c>
       <c r="L64" s="3">
-        <v>50</v>
-      </c>
-      <c r="M64" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O64" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -4150,37 +4166,37 @@
       <c r="F65">
         <v>28</v>
       </c>
-      <c r="G65" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="1" t="s">
+      <c r="G65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H65" t="s">
+        <v>175</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K65" s="3">
+        <v>50</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O65" t="s">
         <v>126</v>
       </c>
-      <c r="I65" t="s">
-        <v>176</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L65" s="3">
-        <v>50</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66">
         <v>90</v>
@@ -4197,37 +4213,37 @@
       <c r="F66">
         <v>12</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="3">
+        <v>50</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O66" t="s">
         <v>128</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I66" t="s">
-        <v>176</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L66" s="3">
-        <v>50</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B67">
         <v>80</v>
@@ -4244,35 +4260,35 @@
       <c r="F67">
         <v>34</v>
       </c>
-      <c r="G67" t="s">
-        <v>128</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I67" t="s">
-        <v>176</v>
+      <c r="G67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" t="s">
+        <v>175</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K67" s="3">
+        <v>50</v>
       </c>
       <c r="L67" s="3">
-        <v>50</v>
-      </c>
-      <c r="M67" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -4291,37 +4307,37 @@
       <c r="F68">
         <v>50</v>
       </c>
-      <c r="G68" t="s">
-        <v>132</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I68" t="s">
-        <v>176</v>
+      <c r="G68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" t="s">
+        <v>175</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K68" s="3">
+        <v>50</v>
       </c>
       <c r="L68" s="3">
-        <v>50</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O68" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B69">
         <v>79</v>
@@ -4338,35 +4354,35 @@
       <c r="F69">
         <v>30</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H69" t="s">
+        <v>175</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="3">
+        <v>50</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O69" t="s">
         <v>132</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I69" t="s">
-        <v>176</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L69" s="3">
-        <v>50</v>
-      </c>
-      <c r="M69" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -4385,35 +4401,35 @@
       <c r="F70">
         <v>15</v>
       </c>
-      <c r="G70" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" t="s">
-        <v>176</v>
+      <c r="G70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H70" t="s">
+        <v>175</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K70" s="3">
+        <v>50</v>
       </c>
       <c r="L70" s="3">
-        <v>50</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -4432,35 +4448,35 @@
       <c r="F71">
         <v>17</v>
       </c>
-      <c r="G71" t="s">
-        <v>137</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I71" t="s">
-        <v>176</v>
+      <c r="G71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K71" s="3">
+        <v>50</v>
       </c>
       <c r="L71" s="3">
-        <v>50</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O71" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -4479,35 +4495,35 @@
       <c r="F72">
         <v>26</v>
       </c>
-      <c r="G72" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I72" t="s">
-        <v>176</v>
+      <c r="G72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H72" t="s">
+        <v>175</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="K72" s="3">
+        <v>50</v>
       </c>
       <c r="L72" s="3">
-        <v>50</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O72" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>140</v>
       </c>
@@ -4529,32 +4545,32 @@
       <c r="G73" t="s">
         <v>141</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>143</v>
+      <c r="I73" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K73" s="3">
+        <v>50</v>
       </c>
       <c r="L73" s="3">
-        <v>50</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O73" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -4573,35 +4589,35 @@
       <c r="F74">
         <v>25</v>
       </c>
-      <c r="G74" t="s">
-        <v>145</v>
+      <c r="G74" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" s="3">
+        <v>50</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O74" t="s">
         <v>143</v>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L74" s="3">
-        <v>50</v>
-      </c>
-      <c r="M74" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O74" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -4621,34 +4637,34 @@
         <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>143</v>
+      <c r="I75" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K75" s="3">
+        <v>50</v>
       </c>
       <c r="L75" s="3">
-        <v>50</v>
-      </c>
-      <c r="M75" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O75" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -4667,35 +4683,35 @@
       <c r="F76">
         <v>55</v>
       </c>
-      <c r="G76" t="s">
-        <v>147</v>
+      <c r="G76" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>143</v>
+      <c r="I76" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K76" s="3">
+        <v>50</v>
       </c>
       <c r="L76" s="3">
-        <v>50</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>148</v>
       </c>
@@ -4715,34 +4731,34 @@
         <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>149</v>
-      </c>
-      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>143</v>
+      <c r="I77" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K77" s="3">
+        <v>50</v>
       </c>
       <c r="L77" s="3">
-        <v>50</v>
-      </c>
-      <c r="M77" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O77" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>150</v>
       </c>
@@ -4761,35 +4777,35 @@
       <c r="F78">
         <v>63</v>
       </c>
-      <c r="G78" t="s">
-        <v>151</v>
+      <c r="G78" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>143</v>
+      <c r="I78" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K78" s="3">
+        <v>50</v>
       </c>
       <c r="L78" s="3">
-        <v>50</v>
-      </c>
-      <c r="M78" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O78" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -4809,36 +4825,36 @@
         <v>62</v>
       </c>
       <c r="G79" t="s">
-        <v>153</v>
-      </c>
-      <c r="H79" t="s">
+        <v>141</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>143</v>
+      <c r="I79" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K79" s="3">
+        <v>50</v>
       </c>
       <c r="L79" s="3">
-        <v>50</v>
-      </c>
-      <c r="M79" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O79" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N79" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B80">
         <v>22</v>
@@ -4855,37 +4871,37 @@
       <c r="F80">
         <v>60</v>
       </c>
-      <c r="G80" t="s">
-        <v>153</v>
+      <c r="G80" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>143</v>
+      <c r="I80" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K80" s="3">
+        <v>50</v>
       </c>
       <c r="L80" s="3">
-        <v>50</v>
-      </c>
-      <c r="M80" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B81">
         <v>74</v>
@@ -4903,34 +4919,34 @@
         <v>62</v>
       </c>
       <c r="G81" t="s">
-        <v>153</v>
-      </c>
-      <c r="H81" t="s">
+        <v>141</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>143</v>
+      <c r="I81" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K81" s="3">
+        <v>50</v>
       </c>
       <c r="L81" s="3">
-        <v>50</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -4949,35 +4965,35 @@
       <c r="F82">
         <v>8</v>
       </c>
-      <c r="G82" t="s">
-        <v>157</v>
+      <c r="G82" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>143</v>
+      <c r="I82" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K82" s="3">
+        <v>50</v>
       </c>
       <c r="L82" s="3">
-        <v>50</v>
-      </c>
-      <c r="M82" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O82" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -4997,34 +5013,34 @@
         <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
-      </c>
-      <c r="H83" t="s">
+        <v>141</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>143</v>
+      <c r="I83" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K83" s="3">
+        <v>50</v>
       </c>
       <c r="L83" s="3">
-        <v>50</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -5043,35 +5059,35 @@
       <c r="F84">
         <v>27</v>
       </c>
-      <c r="G84" t="s">
-        <v>161</v>
+      <c r="G84" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>143</v>
+      <c r="I84" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K84" s="3">
+        <v>50</v>
       </c>
       <c r="L84" s="3">
-        <v>50</v>
-      </c>
-      <c r="M84" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>162</v>
       </c>
@@ -5091,36 +5107,36 @@
         <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>163</v>
-      </c>
-      <c r="H85" t="s">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>143</v>
+      <c r="I85" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K85" s="3">
+        <v>50</v>
       </c>
       <c r="L85" s="3">
-        <v>50</v>
-      </c>
-      <c r="M85" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B86">
         <v>46</v>
@@ -5137,35 +5153,35 @@
       <c r="F86">
         <v>78</v>
       </c>
-      <c r="G86" t="s">
-        <v>163</v>
+      <c r="G86" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>143</v>
+      <c r="I86" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K86" s="3">
+        <v>50</v>
       </c>
       <c r="L86" s="3">
-        <v>50</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -5185,34 +5201,34 @@
         <v>21</v>
       </c>
       <c r="G87" t="s">
-        <v>166</v>
-      </c>
-      <c r="H87" t="s">
+        <v>141</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>143</v>
+      <c r="I87" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K87" s="3">
+        <v>50</v>
       </c>
       <c r="L87" s="3">
-        <v>50</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>167</v>
       </c>
@@ -5231,37 +5247,37 @@
       <c r="F88">
         <v>55</v>
       </c>
-      <c r="G88" t="s">
-        <v>168</v>
+      <c r="G88" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>143</v>
+      <c r="I88" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K88" s="3">
+        <v>50</v>
       </c>
       <c r="L88" s="3">
-        <v>50</v>
-      </c>
-      <c r="M88" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O88" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>0.6</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O88" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B89">
         <v>78</v>
@@ -5279,41 +5295,36 @@
         <v>20</v>
       </c>
       <c r="G89" t="s">
-        <v>166</v>
-      </c>
-      <c r="H89" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>143</v>
+      <c r="I89" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="K89" s="3">
+        <v>50</v>
       </c>
       <c r="L89" s="3">
-        <v>50</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>